--- a/test/GPT4_test/output_refined_5.xlsx
+++ b/test/GPT4_test/output_refined_5.xlsx
@@ -823,6 +823,9 @@
           <t>基于项目的学习：深入课程评估报告</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Education Report</t>
@@ -838,9 +841,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Education Report, titled "Project-Based Learning: An In-depth Course Evaluation Report" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Project-Based Learning: An In-depth Course Evaluation Report.md</t>
+        </is>
+      </c>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="n"/>
@@ -864,6 +875,9 @@
           <t>企业欺诈调查的案例评估报告</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Law Report</t>
@@ -879,9 +893,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H8" s="2" t="n"/>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Law Report, titled "Case Assessment Report on Corporate Fraud Investigations" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Case Assessment Report on Corporate Fraud Investigations.md</t>
+        </is>
+      </c>
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="n"/>
@@ -905,6 +927,9 @@
           <t>知识产权纠纷的法律分析：全面研究</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Law Report</t>
@@ -920,9 +945,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n"/>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Law Report, titled "Legal Analysis of Intellectual Property Disputes: A Comprehensive Study" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Legal Analysis of Intellectual Property Disputes: A Comprehensive Study.md</t>
+        </is>
+      </c>
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="n"/>
@@ -946,6 +979,9 @@
           <t>芝加哥大桥建设工程管理报告</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Management Report</t>
@@ -961,9 +997,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H10" s="2" t="n"/>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Management Report, titled "Chicago Bridge Construction Project Management Report" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Chicago Bridge Construction Project Management Report.md</t>
+        </is>
+      </c>
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="n"/>
@@ -987,6 +1031,9 @@
           <t>narto公司年度管理报告：战略增长与发展</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Management Report</t>
@@ -1002,9 +1049,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n"/>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Management Report, titled "Narto Company's Annual Management Report: Strategic Growth and Development" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Narto Company's Annual Management Report: Strategic Growth and Development.md</t>
+        </is>
+      </c>
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="n"/>
@@ -1028,6 +1083,9 @@
           <t>汽车行业精益生产流程效率分析——以上海特斯拉工厂为例</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Manufacturing Report</t>
@@ -1043,9 +1101,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Manufacturing Report, titled "Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Analysis of the Efficiency of Lean Manufacturing Processes in Automotive Industries: A Case Study of the Tesla Factory in Shanghai.md</t>
+        </is>
+      </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="n"/>
@@ -1069,6 +1135,9 @@
           <t>电子制造业装配线平衡优化案例研究——以富士康为例</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Manufacturing Report</t>
@@ -1084,9 +1153,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Manufacturing Report, titled "A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/A Case Study on Production Line Optimization for Assembly Line Balancing in Electronics Manufacturing: The Foxconn Example.md</t>
+        </is>
+      </c>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="n"/>
@@ -1110,6 +1187,9 @@
           <t>尼罗河上游水电站建设项目环境影响评价报告</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Environment Report</t>
@@ -1125,9 +1205,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n"/>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment Report, titled "Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile Rive" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Environmental Impact Assessment Report on the Hydropower Plant Construction Project in the Upper Nile River.md</t>
+        </is>
+      </c>
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="n"/>
@@ -1151,6 +1239,9 @@
           <t>纽约市榆树街新足球场建设项目环境影响评价报告</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>Environment Report</t>
@@ -1166,9 +1257,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n"/>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Environment Report, titled "Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Environmental Impact Assessment Report for the New Soccer Stadium Construction Project on Elm Street, New York City.md</t>
+        </is>
+      </c>
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="n"/>
@@ -1192,6 +1291,9 @@
           <t>高级数据结构和算法</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>Computer Science Textbook</t>
@@ -1207,9 +1309,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Computer Science Textbook, titled "Advanced Data Structures and Algorithms" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Advanced Data Structures and Algorithms.md</t>
+        </is>
+      </c>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="n"/>
@@ -1233,6 +1343,9 @@
           <t>掌握Python编程：从基础到高级应用</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
           <t>Computer Science Textbook</t>
@@ -1248,9 +1361,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n"/>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one Computer Science Textbook, titled "Mastering Python Programming: From Basics to Advanced Applications" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Mastering Python Programming: From Basics to Advanced Applications.md</t>
+        </is>
+      </c>
       <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="n"/>
@@ -1274,6 +1395,9 @@
           <t>语法综合指南：从基础到高级</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
           <t>English Textbook</t>
@@ -1289,9 +1413,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n"/>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one English Textbook, titled "Grammar Comprehensive Guide: From Basics to Advanced" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Grammar Comprehensive Guide: From Basics to Advanced.md</t>
+        </is>
+      </c>
       <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="n"/>
@@ -1315,6 +1447,9 @@
           <t>掌握英语写作技巧：论文、报告和创意写作</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>English Textbook</t>
@@ -1330,9 +1465,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n"/>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one English Textbook, titled "Mastering English Writing Techniques: Essays, Reports, and Creative Writing" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Mastering English Writing Techniques: Essays, Reports, and Creative Writing.md</t>
+        </is>
+      </c>
       <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="n"/>
@@ -1356,6 +1499,9 @@
           <t>世界历史的综合指南</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>History Textbook</t>
@@ -1371,9 +1517,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n"/>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one History Textbook, titled "The Comprehensive Guide to World History" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/The Comprehensive Guide to World History.md</t>
+        </is>
+      </c>
       <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="n"/>
@@ -1397,6 +1551,9 @@
           <t>美国历史：从殖民到21世纪</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>History Textbook</t>
@@ -1412,9 +1569,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n"/>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one History Textbook, titled "American History: From Colonization to the 21st Century" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/American History: From Colonization to the 21st Century.md</t>
+        </is>
+      </c>
       <c r="K21" s="2" t="n"/>
       <c r="L21" s="2" t="n"/>
       <c r="M21" s="2" t="n"/>
